--- a/tests/testthat/testdata_Quantiles.xlsx
+++ b/tests/testthat/testdata_Quantiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgina.anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD379F42-04E8-4E50-8471-16F99196929B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B04B79-B31F-49C8-9E44-6DD4D0C2071A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11102" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11102" uniqueCount="399">
   <si>
     <t>IndicatorID</t>
   </si>
@@ -1221,7 +1221,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>Quintile</t>
+    <t>22222Female</t>
+  </si>
+  <si>
+    <t>Quartile</t>
   </si>
 </sst>
 </file>
@@ -2081,10 +2084,10 @@
   <dimension ref="A1:U1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B984" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B983" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1006" sqref="P1006"/>
+      <selection pane="bottomRight" activeCell="N1016" sqref="N1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28813,7 +28816,7 @@
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B471" s="3">
         <v>22222</v>
@@ -28868,7 +28871,7 @@
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B472" s="3">
         <v>22222</v>
@@ -28923,7 +28926,7 @@
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B473" s="3">
         <v>22222</v>
@@ -28978,7 +28981,7 @@
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B474" s="3">
         <v>22222</v>
@@ -29033,7 +29036,7 @@
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B475" s="3">
         <v>22222</v>
@@ -29088,7 +29091,7 @@
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B476" s="3">
         <v>22222</v>
@@ -29143,7 +29146,7 @@
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B477" s="3">
         <v>22222</v>
@@ -29198,7 +29201,7 @@
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B478" s="3">
         <v>22222</v>
@@ -29253,7 +29256,7 @@
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B479" s="3">
         <v>22222</v>
@@ -29308,7 +29311,7 @@
     </row>
     <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B480" s="3">
         <v>22222</v>
@@ -29363,7 +29366,7 @@
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B481" s="3">
         <v>22222</v>
@@ -29418,7 +29421,7 @@
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B482" s="3">
         <v>22222</v>
@@ -29473,7 +29476,7 @@
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B483" s="3">
         <v>22222</v>
@@ -29528,7 +29531,7 @@
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B484" s="3">
         <v>22222</v>
@@ -29583,7 +29586,7 @@
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B485" s="3">
         <v>22222</v>
@@ -29638,7 +29641,7 @@
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B486" s="3">
         <v>22222</v>
@@ -29693,7 +29696,7 @@
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B487" s="3">
         <v>22222</v>
@@ -29748,7 +29751,7 @@
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B488" s="3">
         <v>22222</v>
@@ -29803,7 +29806,7 @@
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B489" s="3">
         <v>22222</v>
@@ -29858,7 +29861,7 @@
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B490" s="3">
         <v>22222</v>
@@ -29913,7 +29916,7 @@
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B491" s="3">
         <v>22222</v>
@@ -29968,7 +29971,7 @@
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B492" s="3">
         <v>22222</v>
@@ -31952,7 +31955,7 @@
         <v>388</v>
       </c>
       <c r="N528" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O528" s="3" t="s">
         <v>396</v>
@@ -32008,7 +32011,7 @@
         <v>378</v>
       </c>
       <c r="N529" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O529" s="3" t="s">
         <v>396</v>
@@ -32062,7 +32065,7 @@
         <v>388</v>
       </c>
       <c r="N530" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O530" s="3" t="s">
         <v>396</v>
@@ -32118,7 +32121,7 @@
         <v>378</v>
       </c>
       <c r="N531" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O531" s="3" t="s">
         <v>396</v>
@@ -32172,7 +32175,7 @@
         <v>388</v>
       </c>
       <c r="N532" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O532" s="3" t="s">
         <v>396</v>
@@ -32226,7 +32229,7 @@
         <v>388</v>
       </c>
       <c r="N533" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O533" s="3" t="s">
         <v>396</v>
@@ -32282,7 +32285,7 @@
         <v>378</v>
       </c>
       <c r="N534" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O534" s="3" t="s">
         <v>396</v>
@@ -32338,7 +32341,7 @@
         <v>378</v>
       </c>
       <c r="N535" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O535" s="3" t="s">
         <v>396</v>
@@ -32394,7 +32397,7 @@
         <v>378</v>
       </c>
       <c r="N536" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O536" s="3" t="s">
         <v>396</v>
@@ -32450,7 +32453,7 @@
         <v>378</v>
       </c>
       <c r="N537" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O537" s="3" t="s">
         <v>396</v>
@@ -32504,7 +32507,7 @@
         <v>388</v>
       </c>
       <c r="N538" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O538" s="3" t="s">
         <v>396</v>
@@ -32560,7 +32563,7 @@
         <v>378</v>
       </c>
       <c r="N539" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O539" s="3" t="s">
         <v>396</v>
@@ -32616,7 +32619,7 @@
         <v>378</v>
       </c>
       <c r="N540" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O540" s="3" t="s">
         <v>396</v>
@@ -32672,7 +32675,7 @@
         <v>378</v>
       </c>
       <c r="N541" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O541" s="3" t="s">
         <v>396</v>
@@ -32728,7 +32731,7 @@
         <v>378</v>
       </c>
       <c r="N542" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O542" s="3" t="s">
         <v>396</v>
@@ -32784,7 +32787,7 @@
         <v>378</v>
       </c>
       <c r="N543" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O543" s="3" t="s">
         <v>396</v>
@@ -32838,7 +32841,7 @@
         <v>388</v>
       </c>
       <c r="N544" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O544" s="3" t="s">
         <v>396</v>
@@ -32894,7 +32897,7 @@
         <v>378</v>
       </c>
       <c r="N545" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O545" s="3" t="s">
         <v>396</v>
@@ -32950,7 +32953,7 @@
         <v>378</v>
       </c>
       <c r="N546" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O546" s="3" t="s">
         <v>396</v>
@@ -33006,7 +33009,7 @@
         <v>378</v>
       </c>
       <c r="N547" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O547" s="3" t="s">
         <v>396</v>
@@ -33062,7 +33065,7 @@
         <v>378</v>
       </c>
       <c r="N548" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O548" s="3" t="s">
         <v>396</v>
@@ -33118,7 +33121,7 @@
         <v>378</v>
       </c>
       <c r="N549" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O549" s="3" t="s">
         <v>396</v>
@@ -33174,7 +33177,7 @@
         <v>378</v>
       </c>
       <c r="N550" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O550" s="3" t="s">
         <v>396</v>
@@ -33230,7 +33233,7 @@
         <v>378</v>
       </c>
       <c r="N551" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O551" s="3" t="s">
         <v>396</v>
@@ -33286,7 +33289,7 @@
         <v>378</v>
       </c>
       <c r="N552" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O552" s="3" t="s">
         <v>396</v>
@@ -33342,7 +33345,7 @@
         <v>378</v>
       </c>
       <c r="N553" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O553" s="3" t="s">
         <v>396</v>
@@ -33398,7 +33401,7 @@
         <v>378</v>
       </c>
       <c r="N554" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O554" s="3" t="s">
         <v>396</v>
@@ -33454,7 +33457,7 @@
         <v>378</v>
       </c>
       <c r="N555" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O555" s="3" t="s">
         <v>396</v>
@@ -33508,7 +33511,7 @@
         <v>388</v>
       </c>
       <c r="N556" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O556" s="3" t="s">
         <v>396</v>
@@ -33564,7 +33567,7 @@
         <v>378</v>
       </c>
       <c r="N557" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O557" s="3" t="s">
         <v>396</v>
@@ -33620,7 +33623,7 @@
         <v>378</v>
       </c>
       <c r="N558" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O558" s="3" t="s">
         <v>396</v>
@@ -33676,7 +33679,7 @@
         <v>378</v>
       </c>
       <c r="N559" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O559" s="3" t="s">
         <v>396</v>
@@ -33732,7 +33735,7 @@
         <v>378</v>
       </c>
       <c r="N560" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O560" s="3" t="s">
         <v>396</v>
@@ -33788,7 +33791,7 @@
         <v>378</v>
       </c>
       <c r="N561" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O561" s="3" t="s">
         <v>396</v>
@@ -33844,7 +33847,7 @@
         <v>378</v>
       </c>
       <c r="N562" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O562" s="3" t="s">
         <v>396</v>
@@ -33900,7 +33903,7 @@
         <v>378</v>
       </c>
       <c r="N563" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O563" s="3" t="s">
         <v>396</v>
@@ -33956,7 +33959,7 @@
         <v>378</v>
       </c>
       <c r="N564" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O564" s="3" t="s">
         <v>396</v>
@@ -34012,7 +34015,7 @@
         <v>378</v>
       </c>
       <c r="N565" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O565" s="3" t="s">
         <v>396</v>
@@ -34068,7 +34071,7 @@
         <v>378</v>
       </c>
       <c r="N566" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O566" s="3" t="s">
         <v>396</v>
@@ -34124,7 +34127,7 @@
         <v>378</v>
       </c>
       <c r="N567" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O567" s="3" t="s">
         <v>396</v>
@@ -34180,7 +34183,7 @@
         <v>378</v>
       </c>
       <c r="N568" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O568" s="3" t="s">
         <v>396</v>
@@ -34234,7 +34237,7 @@
         <v>388</v>
       </c>
       <c r="N569" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O569" s="3" t="s">
         <v>396</v>
@@ -34290,7 +34293,7 @@
         <v>378</v>
       </c>
       <c r="N570" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O570" s="3" t="s">
         <v>396</v>
@@ -34346,7 +34349,7 @@
         <v>378</v>
       </c>
       <c r="N571" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O571" s="3" t="s">
         <v>396</v>
@@ -34402,7 +34405,7 @@
         <v>378</v>
       </c>
       <c r="N572" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O572" s="3" t="s">
         <v>396</v>
@@ -34458,7 +34461,7 @@
         <v>378</v>
       </c>
       <c r="N573" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O573" s="3" t="s">
         <v>396</v>
@@ -34514,7 +34517,7 @@
         <v>378</v>
       </c>
       <c r="N574" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O574" s="3" t="s">
         <v>396</v>
@@ -34570,7 +34573,7 @@
         <v>378</v>
       </c>
       <c r="N575" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O575" s="3" t="s">
         <v>396</v>
@@ -34626,7 +34629,7 @@
         <v>378</v>
       </c>
       <c r="N576" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O576" s="3" t="s">
         <v>396</v>
@@ -34682,7 +34685,7 @@
         <v>378</v>
       </c>
       <c r="N577" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O577" s="3" t="s">
         <v>396</v>
@@ -34738,7 +34741,7 @@
         <v>378</v>
       </c>
       <c r="N578" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O578" s="3" t="s">
         <v>396</v>
@@ -34794,7 +34797,7 @@
         <v>378</v>
       </c>
       <c r="N579" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O579" s="3" t="s">
         <v>396</v>
@@ -34850,7 +34853,7 @@
         <v>378</v>
       </c>
       <c r="N580" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O580" s="3" t="s">
         <v>396</v>
@@ -34906,7 +34909,7 @@
         <v>378</v>
       </c>
       <c r="N581" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O581" s="3" t="s">
         <v>396</v>
@@ -34962,7 +34965,7 @@
         <v>378</v>
       </c>
       <c r="N582" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O582" s="3" t="s">
         <v>396</v>
@@ -35018,7 +35021,7 @@
         <v>378</v>
       </c>
       <c r="N583" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O583" s="3" t="s">
         <v>396</v>
@@ -35074,7 +35077,7 @@
         <v>378</v>
       </c>
       <c r="N584" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O584" s="3" t="s">
         <v>396</v>
@@ -35130,7 +35133,7 @@
         <v>378</v>
       </c>
       <c r="N585" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O585" s="3" t="s">
         <v>396</v>
@@ -35186,7 +35189,7 @@
         <v>378</v>
       </c>
       <c r="N586" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O586" s="3" t="s">
         <v>396</v>
@@ -35240,7 +35243,7 @@
         <v>388</v>
       </c>
       <c r="N587" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O587" s="3" t="s">
         <v>396</v>
@@ -35296,7 +35299,7 @@
         <v>378</v>
       </c>
       <c r="N588" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O588" s="3" t="s">
         <v>396</v>
@@ -35352,7 +35355,7 @@
         <v>378</v>
       </c>
       <c r="N589" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O589" s="3" t="s">
         <v>396</v>
@@ -35408,7 +35411,7 @@
         <v>378</v>
       </c>
       <c r="N590" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O590" s="3" t="s">
         <v>396</v>
@@ -35464,7 +35467,7 @@
         <v>378</v>
       </c>
       <c r="N591" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O591" s="3" t="s">
         <v>396</v>
@@ -35520,7 +35523,7 @@
         <v>378</v>
       </c>
       <c r="N592" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O592" s="3" t="s">
         <v>396</v>
@@ -35576,7 +35579,7 @@
         <v>378</v>
       </c>
       <c r="N593" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O593" s="3" t="s">
         <v>396</v>
@@ -35632,7 +35635,7 @@
         <v>378</v>
       </c>
       <c r="N594" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O594" s="3" t="s">
         <v>396</v>
@@ -35688,7 +35691,7 @@
         <v>378</v>
       </c>
       <c r="N595" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O595" s="3" t="s">
         <v>396</v>
@@ -35744,7 +35747,7 @@
         <v>378</v>
       </c>
       <c r="N596" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O596" s="3" t="s">
         <v>396</v>
@@ -35800,7 +35803,7 @@
         <v>378</v>
       </c>
       <c r="N597" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O597" s="3" t="s">
         <v>396</v>
@@ -35856,7 +35859,7 @@
         <v>378</v>
       </c>
       <c r="N598" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O598" s="3" t="s">
         <v>396</v>
@@ -35912,7 +35915,7 @@
         <v>378</v>
       </c>
       <c r="N599" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O599" s="3" t="s">
         <v>396</v>
@@ -35968,7 +35971,7 @@
         <v>378</v>
       </c>
       <c r="N600" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O600" s="3" t="s">
         <v>396</v>
@@ -36024,7 +36027,7 @@
         <v>378</v>
       </c>
       <c r="N601" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O601" s="3" t="s">
         <v>396</v>
@@ -36080,7 +36083,7 @@
         <v>378</v>
       </c>
       <c r="N602" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O602" s="3" t="s">
         <v>396</v>
@@ -36136,7 +36139,7 @@
         <v>378</v>
       </c>
       <c r="N603" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O603" s="3" t="s">
         <v>396</v>
@@ -36192,7 +36195,7 @@
         <v>378</v>
       </c>
       <c r="N604" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O604" s="3" t="s">
         <v>396</v>
@@ -36248,7 +36251,7 @@
         <v>378</v>
       </c>
       <c r="N605" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O605" s="3" t="s">
         <v>396</v>
@@ -36304,7 +36307,7 @@
         <v>378</v>
       </c>
       <c r="N606" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O606" s="3" t="s">
         <v>396</v>
@@ -36360,7 +36363,7 @@
         <v>378</v>
       </c>
       <c r="N607" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O607" s="3" t="s">
         <v>396</v>
@@ -36416,7 +36419,7 @@
         <v>378</v>
       </c>
       <c r="N608" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O608" s="3" t="s">
         <v>396</v>
@@ -36472,7 +36475,7 @@
         <v>378</v>
       </c>
       <c r="N609" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O609" s="3" t="s">
         <v>396</v>
@@ -36528,7 +36531,7 @@
         <v>378</v>
       </c>
       <c r="N610" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O610" s="3" t="s">
         <v>396</v>
@@ -36584,7 +36587,7 @@
         <v>378</v>
       </c>
       <c r="N611" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O611" s="3" t="s">
         <v>396</v>
@@ -36640,7 +36643,7 @@
         <v>378</v>
       </c>
       <c r="N612" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O612" s="3" t="s">
         <v>396</v>
@@ -36694,7 +36697,7 @@
         <v>388</v>
       </c>
       <c r="N613" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O613" s="3" t="s">
         <v>396</v>
@@ -36750,7 +36753,7 @@
         <v>378</v>
       </c>
       <c r="N614" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O614" s="3" t="s">
         <v>396</v>
@@ -36806,7 +36809,7 @@
         <v>378</v>
       </c>
       <c r="N615" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O615" s="3" t="s">
         <v>396</v>
@@ -36862,7 +36865,7 @@
         <v>378</v>
       </c>
       <c r="N616" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O616" s="3" t="s">
         <v>396</v>
@@ -36918,7 +36921,7 @@
         <v>378</v>
       </c>
       <c r="N617" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O617" s="3" t="s">
         <v>396</v>
@@ -36974,7 +36977,7 @@
         <v>378</v>
       </c>
       <c r="N618" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O618" s="3" t="s">
         <v>396</v>
@@ -37030,7 +37033,7 @@
         <v>378</v>
       </c>
       <c r="N619" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O619" s="3" t="s">
         <v>396</v>
@@ -37086,7 +37089,7 @@
         <v>378</v>
       </c>
       <c r="N620" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O620" s="3" t="s">
         <v>396</v>
@@ -37142,7 +37145,7 @@
         <v>378</v>
       </c>
       <c r="N621" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O621" s="3" t="s">
         <v>396</v>
@@ -37198,7 +37201,7 @@
         <v>378</v>
       </c>
       <c r="N622" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O622" s="3" t="s">
         <v>396</v>
@@ -37254,7 +37257,7 @@
         <v>378</v>
       </c>
       <c r="N623" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O623" s="3" t="s">
         <v>396</v>
@@ -37310,7 +37313,7 @@
         <v>378</v>
       </c>
       <c r="N624" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O624" s="3" t="s">
         <v>396</v>
@@ -37366,7 +37369,7 @@
         <v>378</v>
       </c>
       <c r="N625" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O625" s="3" t="s">
         <v>396</v>
@@ -37422,7 +37425,7 @@
         <v>378</v>
       </c>
       <c r="N626" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O626" s="3" t="s">
         <v>396</v>
@@ -37478,7 +37481,7 @@
         <v>378</v>
       </c>
       <c r="N627" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O627" s="3" t="s">
         <v>396</v>
@@ -37534,7 +37537,7 @@
         <v>378</v>
       </c>
       <c r="N628" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O628" s="3" t="s">
         <v>396</v>
@@ -37590,7 +37593,7 @@
         <v>378</v>
       </c>
       <c r="N629" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O629" s="3" t="s">
         <v>396</v>
@@ -37646,7 +37649,7 @@
         <v>378</v>
       </c>
       <c r="N630" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O630" s="3" t="s">
         <v>396</v>
@@ -37702,7 +37705,7 @@
         <v>378</v>
       </c>
       <c r="N631" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O631" s="3" t="s">
         <v>396</v>
@@ -37758,7 +37761,7 @@
         <v>378</v>
       </c>
       <c r="N632" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O632" s="3" t="s">
         <v>396</v>
@@ -37814,7 +37817,7 @@
         <v>378</v>
       </c>
       <c r="N633" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O633" s="3" t="s">
         <v>396</v>
@@ -37870,7 +37873,7 @@
         <v>378</v>
       </c>
       <c r="N634" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O634" s="3" t="s">
         <v>396</v>
@@ -37926,7 +37929,7 @@
         <v>378</v>
       </c>
       <c r="N635" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O635" s="3" t="s">
         <v>396</v>
@@ -37982,7 +37985,7 @@
         <v>378</v>
       </c>
       <c r="N636" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O636" s="3" t="s">
         <v>396</v>
@@ -38038,7 +38041,7 @@
         <v>378</v>
       </c>
       <c r="N637" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O637" s="3" t="s">
         <v>396</v>
@@ -38094,7 +38097,7 @@
         <v>378</v>
       </c>
       <c r="N638" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O638" s="3" t="s">
         <v>396</v>
@@ -38150,7 +38153,7 @@
         <v>378</v>
       </c>
       <c r="N639" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O639" s="3" t="s">
         <v>396</v>
@@ -38206,7 +38209,7 @@
         <v>378</v>
       </c>
       <c r="N640" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O640" s="3" t="s">
         <v>396</v>
@@ -38262,7 +38265,7 @@
         <v>378</v>
       </c>
       <c r="N641" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O641" s="3" t="s">
         <v>396</v>
@@ -38318,7 +38321,7 @@
         <v>378</v>
       </c>
       <c r="N642" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O642" s="3" t="s">
         <v>396</v>
@@ -38374,7 +38377,7 @@
         <v>378</v>
       </c>
       <c r="N643" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O643" s="3" t="s">
         <v>396</v>
@@ -38430,7 +38433,7 @@
         <v>378</v>
       </c>
       <c r="N644" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O644" s="3" t="s">
         <v>396</v>
@@ -38486,7 +38489,7 @@
         <v>378</v>
       </c>
       <c r="N645" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O645" s="3" t="s">
         <v>396</v>
@@ -38542,7 +38545,7 @@
         <v>378</v>
       </c>
       <c r="N646" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O646" s="3" t="s">
         <v>396</v>
@@ -38598,7 +38601,7 @@
         <v>378</v>
       </c>
       <c r="N647" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O647" s="3" t="s">
         <v>396</v>
@@ -38654,7 +38657,7 @@
         <v>378</v>
       </c>
       <c r="N648" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O648" s="3" t="s">
         <v>396</v>
@@ -38710,7 +38713,7 @@
         <v>378</v>
       </c>
       <c r="N649" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O649" s="3" t="s">
         <v>396</v>
@@ -38766,7 +38769,7 @@
         <v>378</v>
       </c>
       <c r="N650" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O650" s="3" t="s">
         <v>396</v>
@@ -38822,7 +38825,7 @@
         <v>378</v>
       </c>
       <c r="N651" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O651" s="3" t="s">
         <v>396</v>
@@ -38878,7 +38881,7 @@
         <v>378</v>
       </c>
       <c r="N652" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O652" s="3" t="s">
         <v>396</v>
@@ -38934,7 +38937,7 @@
         <v>378</v>
       </c>
       <c r="N653" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O653" s="3" t="s">
         <v>396</v>
@@ -38990,7 +38993,7 @@
         <v>378</v>
       </c>
       <c r="N654" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O654" s="3" t="s">
         <v>396</v>
@@ -39046,7 +39049,7 @@
         <v>378</v>
       </c>
       <c r="N655" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O655" s="3" t="s">
         <v>396</v>
@@ -39102,7 +39105,7 @@
         <v>378</v>
       </c>
       <c r="N656" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O656" s="3" t="s">
         <v>396</v>
@@ -39158,7 +39161,7 @@
         <v>378</v>
       </c>
       <c r="N657" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O657" s="3" t="s">
         <v>396</v>
@@ -39212,7 +39215,7 @@
         <v>388</v>
       </c>
       <c r="N658" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O658" s="3" t="s">
         <v>396</v>
@@ -39266,7 +39269,7 @@
         <v>388</v>
       </c>
       <c r="N659" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O659" s="3" t="s">
         <v>396</v>
@@ -39322,7 +39325,7 @@
         <v>378</v>
       </c>
       <c r="N660" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O660" s="3" t="s">
         <v>396</v>
@@ -39378,7 +39381,7 @@
         <v>378</v>
       </c>
       <c r="N661" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O661" s="3" t="s">
         <v>396</v>
@@ -39434,7 +39437,7 @@
         <v>378</v>
       </c>
       <c r="N662" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O662" s="3" t="s">
         <v>396</v>
@@ -39490,7 +39493,7 @@
         <v>378</v>
       </c>
       <c r="N663" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O663" s="3" t="s">
         <v>396</v>
@@ -39546,7 +39549,7 @@
         <v>378</v>
       </c>
       <c r="N664" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O664" s="3" t="s">
         <v>396</v>
@@ -39602,7 +39605,7 @@
         <v>378</v>
       </c>
       <c r="N665" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O665" s="3" t="s">
         <v>396</v>
@@ -39658,7 +39661,7 @@
         <v>378</v>
       </c>
       <c r="N666" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O666" s="3" t="s">
         <v>396</v>
@@ -39714,7 +39717,7 @@
         <v>378</v>
       </c>
       <c r="N667" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O667" s="3" t="s">
         <v>396</v>
@@ -39770,7 +39773,7 @@
         <v>378</v>
       </c>
       <c r="N668" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O668" s="3" t="s">
         <v>396</v>
@@ -39826,7 +39829,7 @@
         <v>378</v>
       </c>
       <c r="N669" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O669" s="3" t="s">
         <v>396</v>
@@ -39882,7 +39885,7 @@
         <v>378</v>
       </c>
       <c r="N670" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O670" s="3" t="s">
         <v>396</v>
@@ -39938,7 +39941,7 @@
         <v>378</v>
       </c>
       <c r="N671" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O671" s="3" t="s">
         <v>396</v>
@@ -39994,7 +39997,7 @@
         <v>378</v>
       </c>
       <c r="N672" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O672" s="3" t="s">
         <v>396</v>
@@ -40050,7 +40053,7 @@
         <v>378</v>
       </c>
       <c r="N673" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O673" s="3" t="s">
         <v>396</v>
@@ -40106,7 +40109,7 @@
         <v>378</v>
       </c>
       <c r="N674" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O674" s="3" t="s">
         <v>396</v>
@@ -40162,7 +40165,7 @@
         <v>378</v>
       </c>
       <c r="N675" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O675" s="3" t="s">
         <v>396</v>
@@ -40218,7 +40221,7 @@
         <v>378</v>
       </c>
       <c r="N676" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O676" s="3" t="s">
         <v>396</v>
@@ -40274,7 +40277,7 @@
         <v>378</v>
       </c>
       <c r="N677" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O677" s="3" t="s">
         <v>396</v>
@@ -40328,7 +40331,7 @@
         <v>388</v>
       </c>
       <c r="N678" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O678" s="3" t="s">
         <v>396</v>
@@ -40384,7 +40387,7 @@
         <v>378</v>
       </c>
       <c r="N679" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O679" s="3" t="s">
         <v>396</v>
@@ -40440,7 +40443,7 @@
         <v>378</v>
       </c>
       <c r="N680" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O680" s="3" t="s">
         <v>396</v>
@@ -40496,7 +40499,7 @@
         <v>378</v>
       </c>
       <c r="N681" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O681" s="3" t="s">
         <v>396</v>
@@ -40552,7 +40555,7 @@
         <v>378</v>
       </c>
       <c r="N682" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O682" s="3" t="s">
         <v>396</v>
@@ -40608,7 +40611,7 @@
         <v>378</v>
       </c>
       <c r="N683" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O683" s="3" t="s">
         <v>396</v>
@@ -40664,7 +40667,7 @@
         <v>378</v>
       </c>
       <c r="N684" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O684" s="3" t="s">
         <v>396</v>
@@ -40720,7 +40723,7 @@
         <v>378</v>
       </c>
       <c r="N685" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O685" s="3" t="s">
         <v>396</v>
@@ -40776,7 +40779,7 @@
         <v>378</v>
       </c>
       <c r="N686" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O686" s="3" t="s">
         <v>396</v>
@@ -40832,7 +40835,7 @@
         <v>378</v>
       </c>
       <c r="N687" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O687" s="3" t="s">
         <v>396</v>
@@ -40888,7 +40891,7 @@
         <v>378</v>
       </c>
       <c r="N688" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O688" s="3" t="s">
         <v>396</v>
@@ -40944,7 +40947,7 @@
         <v>378</v>
       </c>
       <c r="N689" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O689" s="3" t="s">
         <v>396</v>
@@ -41000,7 +41003,7 @@
         <v>378</v>
       </c>
       <c r="N690" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O690" s="3" t="s">
         <v>396</v>
@@ -41056,7 +41059,7 @@
         <v>378</v>
       </c>
       <c r="N691" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O691" s="3" t="s">
         <v>396</v>
@@ -41112,7 +41115,7 @@
         <v>378</v>
       </c>
       <c r="N692" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O692" s="3" t="s">
         <v>396</v>
@@ -41168,7 +41171,7 @@
         <v>378</v>
       </c>
       <c r="N693" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O693" s="3" t="s">
         <v>396</v>
@@ -41224,7 +41227,7 @@
         <v>378</v>
       </c>
       <c r="N694" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O694" s="3" t="s">
         <v>396</v>
@@ -41280,7 +41283,7 @@
         <v>378</v>
       </c>
       <c r="N695" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O695" s="3" t="s">
         <v>396</v>
@@ -41336,7 +41339,7 @@
         <v>378</v>
       </c>
       <c r="N696" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O696" s="3" t="s">
         <v>396</v>
@@ -41392,7 +41395,7 @@
         <v>378</v>
       </c>
       <c r="N697" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O697" s="3" t="s">
         <v>396</v>
@@ -41448,7 +41451,7 @@
         <v>378</v>
       </c>
       <c r="N698" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O698" s="3" t="s">
         <v>396</v>
@@ -41504,7 +41507,7 @@
         <v>378</v>
       </c>
       <c r="N699" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O699" s="3" t="s">
         <v>396</v>
@@ -41560,7 +41563,7 @@
         <v>378</v>
       </c>
       <c r="N700" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O700" s="3" t="s">
         <v>396</v>
@@ -41616,7 +41619,7 @@
         <v>378</v>
       </c>
       <c r="N701" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O701" s="3" t="s">
         <v>396</v>
@@ -41672,7 +41675,7 @@
         <v>378</v>
       </c>
       <c r="N702" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O702" s="3" t="s">
         <v>396</v>
@@ -41728,7 +41731,7 @@
         <v>378</v>
       </c>
       <c r="N703" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O703" s="3" t="s">
         <v>396</v>
@@ -41784,7 +41787,7 @@
         <v>378</v>
       </c>
       <c r="N704" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O704" s="3" t="s">
         <v>396</v>
@@ -41840,7 +41843,7 @@
         <v>378</v>
       </c>
       <c r="N705" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O705" s="3" t="s">
         <v>396</v>
@@ -41896,7 +41899,7 @@
         <v>378</v>
       </c>
       <c r="N706" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O706" s="3" t="s">
         <v>396</v>
@@ -41952,7 +41955,7 @@
         <v>378</v>
       </c>
       <c r="N707" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O707" s="3" t="s">
         <v>396</v>
@@ -42008,7 +42011,7 @@
         <v>378</v>
       </c>
       <c r="N708" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O708" s="3" t="s">
         <v>396</v>
@@ -42064,7 +42067,7 @@
         <v>378</v>
       </c>
       <c r="N709" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O709" s="3" t="s">
         <v>396</v>
@@ -42120,7 +42123,7 @@
         <v>378</v>
       </c>
       <c r="N710" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O710" s="3" t="s">
         <v>396</v>
@@ -42176,7 +42179,7 @@
         <v>378</v>
       </c>
       <c r="N711" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O711" s="3" t="s">
         <v>396</v>
@@ -42232,7 +42235,7 @@
         <v>378</v>
       </c>
       <c r="N712" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O712" s="3" t="s">
         <v>396</v>
@@ -42288,7 +42291,7 @@
         <v>378</v>
       </c>
       <c r="N713" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O713" s="3" t="s">
         <v>396</v>
@@ -42344,7 +42347,7 @@
         <v>378</v>
       </c>
       <c r="N714" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O714" s="3" t="s">
         <v>396</v>
@@ -42400,7 +42403,7 @@
         <v>378</v>
       </c>
       <c r="N715" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O715" s="3" t="s">
         <v>396</v>
@@ -42456,7 +42459,7 @@
         <v>378</v>
       </c>
       <c r="N716" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O716" s="3" t="s">
         <v>396</v>
@@ -42512,7 +42515,7 @@
         <v>378</v>
       </c>
       <c r="N717" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O717" s="3" t="s">
         <v>396</v>
@@ -42568,7 +42571,7 @@
         <v>378</v>
       </c>
       <c r="N718" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O718" s="3" t="s">
         <v>396</v>
@@ -42624,7 +42627,7 @@
         <v>378</v>
       </c>
       <c r="N719" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O719" s="3" t="s">
         <v>396</v>
@@ -42680,7 +42683,7 @@
         <v>378</v>
       </c>
       <c r="N720" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O720" s="3" t="s">
         <v>396</v>
@@ -42736,7 +42739,7 @@
         <v>378</v>
       </c>
       <c r="N721" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O721" s="3" t="s">
         <v>396</v>
@@ -42792,7 +42795,7 @@
         <v>378</v>
       </c>
       <c r="N722" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O722" s="3" t="s">
         <v>396</v>
@@ -42848,7 +42851,7 @@
         <v>378</v>
       </c>
       <c r="N723" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O723" s="3" t="s">
         <v>396</v>
@@ -42904,7 +42907,7 @@
         <v>378</v>
       </c>
       <c r="N724" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O724" s="3" t="s">
         <v>396</v>
@@ -42960,7 +42963,7 @@
         <v>378</v>
       </c>
       <c r="N725" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O725" s="3" t="s">
         <v>396</v>
@@ -43016,7 +43019,7 @@
         <v>378</v>
       </c>
       <c r="N726" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O726" s="3" t="s">
         <v>396</v>
@@ -43072,7 +43075,7 @@
         <v>378</v>
       </c>
       <c r="N727" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O727" s="3" t="s">
         <v>396</v>
@@ -43128,7 +43131,7 @@
         <v>378</v>
       </c>
       <c r="N728" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O728" s="3" t="s">
         <v>396</v>
@@ -43184,7 +43187,7 @@
         <v>378</v>
       </c>
       <c r="N729" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O729" s="3" t="s">
         <v>396</v>
@@ -43240,7 +43243,7 @@
         <v>378</v>
       </c>
       <c r="N730" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O730" s="3" t="s">
         <v>396</v>
@@ -43296,7 +43299,7 @@
         <v>378</v>
       </c>
       <c r="N731" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O731" s="3" t="s">
         <v>396</v>
@@ -43352,7 +43355,7 @@
         <v>378</v>
       </c>
       <c r="N732" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O732" s="3" t="s">
         <v>396</v>
@@ -43408,7 +43411,7 @@
         <v>378</v>
       </c>
       <c r="N733" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O733" s="3" t="s">
         <v>396</v>
@@ -43464,7 +43467,7 @@
         <v>378</v>
       </c>
       <c r="N734" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O734" s="3" t="s">
         <v>396</v>
@@ -43520,7 +43523,7 @@
         <v>378</v>
       </c>
       <c r="N735" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O735" s="3" t="s">
         <v>396</v>
@@ -43576,7 +43579,7 @@
         <v>378</v>
       </c>
       <c r="N736" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O736" s="3" t="s">
         <v>396</v>
@@ -43632,7 +43635,7 @@
         <v>378</v>
       </c>
       <c r="N737" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O737" s="3" t="s">
         <v>396</v>
@@ -43688,7 +43691,7 @@
         <v>378</v>
       </c>
       <c r="N738" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O738" s="3" t="s">
         <v>396</v>
@@ -43744,7 +43747,7 @@
         <v>378</v>
       </c>
       <c r="N739" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O739" s="3" t="s">
         <v>396</v>
@@ -43800,7 +43803,7 @@
         <v>378</v>
       </c>
       <c r="N740" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O740" s="3" t="s">
         <v>396</v>
@@ -43856,7 +43859,7 @@
         <v>378</v>
       </c>
       <c r="N741" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O741" s="3" t="s">
         <v>396</v>
@@ -43912,7 +43915,7 @@
         <v>378</v>
       </c>
       <c r="N742" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O742" s="3" t="s">
         <v>396</v>
@@ -43968,7 +43971,7 @@
         <v>378</v>
       </c>
       <c r="N743" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O743" s="3" t="s">
         <v>396</v>
@@ -44024,7 +44027,7 @@
         <v>378</v>
       </c>
       <c r="N744" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O744" s="3" t="s">
         <v>396</v>
@@ -44080,7 +44083,7 @@
         <v>378</v>
       </c>
       <c r="N745" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O745" s="3" t="s">
         <v>396</v>
@@ -44136,7 +44139,7 @@
         <v>378</v>
       </c>
       <c r="N746" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O746" s="3" t="s">
         <v>396</v>
@@ -44192,7 +44195,7 @@
         <v>378</v>
       </c>
       <c r="N747" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O747" s="3" t="s">
         <v>396</v>
@@ -44248,7 +44251,7 @@
         <v>378</v>
       </c>
       <c r="N748" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O748" s="3" t="s">
         <v>396</v>
@@ -44304,7 +44307,7 @@
         <v>378</v>
       </c>
       <c r="N749" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O749" s="3" t="s">
         <v>396</v>
@@ -44360,7 +44363,7 @@
         <v>378</v>
       </c>
       <c r="N750" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O750" s="3" t="s">
         <v>396</v>
@@ -44416,7 +44419,7 @@
         <v>378</v>
       </c>
       <c r="N751" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O751" s="3" t="s">
         <v>396</v>
@@ -44472,7 +44475,7 @@
         <v>378</v>
       </c>
       <c r="N752" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O752" s="3" t="s">
         <v>396</v>
@@ -44528,7 +44531,7 @@
         <v>378</v>
       </c>
       <c r="N753" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O753" s="3" t="s">
         <v>396</v>
@@ -44584,7 +44587,7 @@
         <v>378</v>
       </c>
       <c r="N754" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O754" s="3" t="s">
         <v>396</v>
@@ -44640,7 +44643,7 @@
         <v>378</v>
       </c>
       <c r="N755" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O755" s="3" t="s">
         <v>396</v>
@@ -44696,7 +44699,7 @@
         <v>378</v>
       </c>
       <c r="N756" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O756" s="3" t="s">
         <v>396</v>
@@ -44752,7 +44755,7 @@
         <v>378</v>
       </c>
       <c r="N757" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O757" s="3" t="s">
         <v>396</v>
@@ -44808,7 +44811,7 @@
         <v>378</v>
       </c>
       <c r="N758" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O758" s="3" t="s">
         <v>396</v>
@@ -44864,7 +44867,7 @@
         <v>378</v>
       </c>
       <c r="N759" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O759" s="3" t="s">
         <v>396</v>
@@ -44920,7 +44923,7 @@
         <v>378</v>
       </c>
       <c r="N760" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O760" s="3" t="s">
         <v>396</v>
@@ -44976,7 +44979,7 @@
         <v>378</v>
       </c>
       <c r="N761" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O761" s="3" t="s">
         <v>396</v>
@@ -45032,7 +45035,7 @@
         <v>378</v>
       </c>
       <c r="N762" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O762" s="3" t="s">
         <v>396</v>
@@ -45088,7 +45091,7 @@
         <v>378</v>
       </c>
       <c r="N763" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O763" s="3" t="s">
         <v>396</v>
@@ -45144,7 +45147,7 @@
         <v>378</v>
       </c>
       <c r="N764" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O764" s="3" t="s">
         <v>396</v>
@@ -45200,7 +45203,7 @@
         <v>378</v>
       </c>
       <c r="N765" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O765" s="3" t="s">
         <v>396</v>
@@ -45256,7 +45259,7 @@
         <v>378</v>
       </c>
       <c r="N766" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O766" s="3" t="s">
         <v>396</v>
@@ -45312,7 +45315,7 @@
         <v>378</v>
       </c>
       <c r="N767" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O767" s="3" t="s">
         <v>396</v>
@@ -45368,7 +45371,7 @@
         <v>378</v>
       </c>
       <c r="N768" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O768" s="3" t="s">
         <v>396</v>
@@ -45424,7 +45427,7 @@
         <v>378</v>
       </c>
       <c r="N769" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O769" s="3" t="s">
         <v>396</v>
@@ -45480,7 +45483,7 @@
         <v>378</v>
       </c>
       <c r="N770" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O770" s="3" t="s">
         <v>396</v>
@@ -45536,7 +45539,7 @@
         <v>378</v>
       </c>
       <c r="N771" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O771" s="3" t="s">
         <v>396</v>
@@ -45592,7 +45595,7 @@
         <v>378</v>
       </c>
       <c r="N772" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O772" s="3" t="s">
         <v>396</v>
@@ -45648,7 +45651,7 @@
         <v>378</v>
       </c>
       <c r="N773" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O773" s="3" t="s">
         <v>396</v>
@@ -45704,7 +45707,7 @@
         <v>378</v>
       </c>
       <c r="N774" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O774" s="3" t="s">
         <v>396</v>
@@ -45760,7 +45763,7 @@
         <v>378</v>
       </c>
       <c r="N775" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O775" s="3" t="s">
         <v>396</v>
@@ -45816,7 +45819,7 @@
         <v>378</v>
       </c>
       <c r="N776" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O776" s="3" t="s">
         <v>396</v>
@@ -45872,7 +45875,7 @@
         <v>378</v>
       </c>
       <c r="N777" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O777" s="3" t="s">
         <v>396</v>
@@ -45928,7 +45931,7 @@
         <v>378</v>
       </c>
       <c r="N778" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O778" s="3" t="s">
         <v>396</v>
@@ -45984,7 +45987,7 @@
         <v>378</v>
       </c>
       <c r="N779" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O779" s="3" t="s">
         <v>396</v>
@@ -46040,7 +46043,7 @@
         <v>378</v>
       </c>
       <c r="N780" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O780" s="3" t="s">
         <v>396</v>
@@ -46096,7 +46099,7 @@
         <v>378</v>
       </c>
       <c r="N781" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O781" s="3" t="s">
         <v>396</v>
@@ -46152,7 +46155,7 @@
         <v>378</v>
       </c>
       <c r="N782" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O782" s="3" t="s">
         <v>396</v>
@@ -46208,7 +46211,7 @@
         <v>378</v>
       </c>
       <c r="N783" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O783" s="3" t="s">
         <v>396</v>
@@ -46264,7 +46267,7 @@
         <v>378</v>
       </c>
       <c r="N784" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O784" s="3" t="s">
         <v>396</v>
@@ -46320,7 +46323,7 @@
         <v>378</v>
       </c>
       <c r="N785" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O785" s="3" t="s">
         <v>396</v>
@@ -46376,7 +46379,7 @@
         <v>378</v>
       </c>
       <c r="N786" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O786" s="3" t="s">
         <v>396</v>
@@ -46432,7 +46435,7 @@
         <v>378</v>
       </c>
       <c r="N787" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O787" s="3" t="s">
         <v>396</v>
@@ -46488,7 +46491,7 @@
         <v>378</v>
       </c>
       <c r="N788" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O788" s="3" t="s">
         <v>396</v>
@@ -46544,7 +46547,7 @@
         <v>378</v>
       </c>
       <c r="N789" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O789" s="3" t="s">
         <v>396</v>
@@ -46600,7 +46603,7 @@
         <v>378</v>
       </c>
       <c r="N790" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O790" s="3" t="s">
         <v>396</v>
@@ -46656,7 +46659,7 @@
         <v>378</v>
       </c>
       <c r="N791" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O791" s="3" t="s">
         <v>396</v>
@@ -46712,7 +46715,7 @@
         <v>378</v>
       </c>
       <c r="N792" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O792" s="3" t="s">
         <v>396</v>
@@ -46768,7 +46771,7 @@
         <v>378</v>
       </c>
       <c r="N793" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O793" s="3" t="s">
         <v>396</v>
@@ -46824,7 +46827,7 @@
         <v>378</v>
       </c>
       <c r="N794" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O794" s="3" t="s">
         <v>396</v>
@@ -46880,7 +46883,7 @@
         <v>378</v>
       </c>
       <c r="N795" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O795" s="3" t="s">
         <v>396</v>
@@ -46936,7 +46939,7 @@
         <v>378</v>
       </c>
       <c r="N796" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O796" s="3" t="s">
         <v>396</v>
@@ -46992,7 +46995,7 @@
         <v>378</v>
       </c>
       <c r="N797" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O797" s="3" t="s">
         <v>396</v>
@@ -47048,7 +47051,7 @@
         <v>378</v>
       </c>
       <c r="N798" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O798" s="3" t="s">
         <v>396</v>
@@ -47104,7 +47107,7 @@
         <v>378</v>
       </c>
       <c r="N799" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O799" s="3" t="s">
         <v>396</v>
@@ -47160,7 +47163,7 @@
         <v>378</v>
       </c>
       <c r="N800" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O800" s="3" t="s">
         <v>396</v>
@@ -47216,7 +47219,7 @@
         <v>378</v>
       </c>
       <c r="N801" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O801" s="3" t="s">
         <v>396</v>
@@ -47272,7 +47275,7 @@
         <v>378</v>
       </c>
       <c r="N802" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O802" s="3" t="s">
         <v>396</v>
@@ -47328,7 +47331,7 @@
         <v>378</v>
       </c>
       <c r="N803" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O803" s="3" t="s">
         <v>396</v>
@@ -47384,7 +47387,7 @@
         <v>378</v>
       </c>
       <c r="N804" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O804" s="3" t="s">
         <v>396</v>
@@ -47440,7 +47443,7 @@
         <v>378</v>
       </c>
       <c r="N805" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O805" s="3" t="s">
         <v>396</v>
@@ -47496,7 +47499,7 @@
         <v>378</v>
       </c>
       <c r="N806" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O806" s="3" t="s">
         <v>396</v>
@@ -47552,7 +47555,7 @@
         <v>378</v>
       </c>
       <c r="N807" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O807" s="3" t="s">
         <v>396</v>
@@ -47608,7 +47611,7 @@
         <v>378</v>
       </c>
       <c r="N808" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O808" s="3" t="s">
         <v>396</v>
@@ -47664,7 +47667,7 @@
         <v>378</v>
       </c>
       <c r="N809" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O809" s="3" t="s">
         <v>396</v>
@@ -47720,7 +47723,7 @@
         <v>378</v>
       </c>
       <c r="N810" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O810" s="3" t="s">
         <v>396</v>
@@ -47776,7 +47779,7 @@
         <v>378</v>
       </c>
       <c r="N811" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O811" s="3" t="s">
         <v>396</v>
@@ -47832,7 +47835,7 @@
         <v>378</v>
       </c>
       <c r="N812" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O812" s="3" t="s">
         <v>396</v>
@@ -47888,7 +47891,7 @@
         <v>378</v>
       </c>
       <c r="N813" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O813" s="3" t="s">
         <v>396</v>
@@ -47944,7 +47947,7 @@
         <v>378</v>
       </c>
       <c r="N814" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O814" s="3" t="s">
         <v>396</v>
@@ -48000,7 +48003,7 @@
         <v>378</v>
       </c>
       <c r="N815" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O815" s="3" t="s">
         <v>396</v>
@@ -48056,7 +48059,7 @@
         <v>378</v>
       </c>
       <c r="N816" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O816" s="3" t="s">
         <v>396</v>
@@ -48112,7 +48115,7 @@
         <v>378</v>
       </c>
       <c r="N817" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O817" s="3" t="s">
         <v>396</v>
@@ -48168,7 +48171,7 @@
         <v>378</v>
       </c>
       <c r="N818" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O818" s="3" t="s">
         <v>396</v>
@@ -48224,7 +48227,7 @@
         <v>378</v>
       </c>
       <c r="N819" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O819" s="3" t="s">
         <v>396</v>
@@ -48280,7 +48283,7 @@
         <v>378</v>
       </c>
       <c r="N820" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O820" s="3" t="s">
         <v>396</v>
@@ -48336,7 +48339,7 @@
         <v>378</v>
       </c>
       <c r="N821" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O821" s="3" t="s">
         <v>396</v>
@@ -48392,7 +48395,7 @@
         <v>378</v>
       </c>
       <c r="N822" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O822" s="3" t="s">
         <v>396</v>
@@ -48448,7 +48451,7 @@
         <v>378</v>
       </c>
       <c r="N823" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O823" s="3" t="s">
         <v>396</v>
@@ -48504,7 +48507,7 @@
         <v>378</v>
       </c>
       <c r="N824" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O824" s="3" t="s">
         <v>396</v>
@@ -48560,7 +48563,7 @@
         <v>378</v>
       </c>
       <c r="N825" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O825" s="3" t="s">
         <v>396</v>
@@ -48616,7 +48619,7 @@
         <v>378</v>
       </c>
       <c r="N826" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O826" s="3" t="s">
         <v>396</v>
@@ -48672,7 +48675,7 @@
         <v>378</v>
       </c>
       <c r="N827" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O827" s="3" t="s">
         <v>396</v>
@@ -48728,7 +48731,7 @@
         <v>378</v>
       </c>
       <c r="N828" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O828" s="3" t="s">
         <v>396</v>
@@ -48784,7 +48787,7 @@
         <v>378</v>
       </c>
       <c r="N829" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O829" s="3" t="s">
         <v>396</v>
@@ -48840,7 +48843,7 @@
         <v>378</v>
       </c>
       <c r="N830" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O830" s="3" t="s">
         <v>396</v>
@@ -48896,7 +48899,7 @@
         <v>378</v>
       </c>
       <c r="N831" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O831" s="3" t="s">
         <v>396</v>
@@ -48952,7 +48955,7 @@
         <v>378</v>
       </c>
       <c r="N832" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O832" s="3" t="s">
         <v>396</v>
@@ -49008,7 +49011,7 @@
         <v>378</v>
       </c>
       <c r="N833" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O833" s="3" t="s">
         <v>396</v>
@@ -49064,7 +49067,7 @@
         <v>378</v>
       </c>
       <c r="N834" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O834" s="3" t="s">
         <v>396</v>
@@ -49120,7 +49123,7 @@
         <v>378</v>
       </c>
       <c r="N835" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O835" s="3" t="s">
         <v>396</v>
@@ -49176,7 +49179,7 @@
         <v>378</v>
       </c>
       <c r="N836" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O836" s="3" t="s">
         <v>396</v>
@@ -49232,7 +49235,7 @@
         <v>378</v>
       </c>
       <c r="N837" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O837" s="3" t="s">
         <v>396</v>
@@ -49288,7 +49291,7 @@
         <v>378</v>
       </c>
       <c r="N838" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O838" s="3" t="s">
         <v>396</v>
@@ -49344,7 +49347,7 @@
         <v>378</v>
       </c>
       <c r="N839" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O839" s="3" t="s">
         <v>396</v>
@@ -49400,7 +49403,7 @@
         <v>378</v>
       </c>
       <c r="N840" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O840" s="3" t="s">
         <v>396</v>
@@ -49456,7 +49459,7 @@
         <v>378</v>
       </c>
       <c r="N841" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O841" s="3" t="s">
         <v>396</v>
@@ -49512,7 +49515,7 @@
         <v>378</v>
       </c>
       <c r="N842" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O842" s="3" t="s">
         <v>396</v>
@@ -49568,7 +49571,7 @@
         <v>378</v>
       </c>
       <c r="N843" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O843" s="3" t="s">
         <v>396</v>
@@ -49624,7 +49627,7 @@
         <v>378</v>
       </c>
       <c r="N844" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O844" s="3" t="s">
         <v>396</v>
@@ -49680,7 +49683,7 @@
         <v>378</v>
       </c>
       <c r="N845" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O845" s="3" t="s">
         <v>396</v>
@@ -49736,7 +49739,7 @@
         <v>378</v>
       </c>
       <c r="N846" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O846" s="3" t="s">
         <v>396</v>
@@ -49792,7 +49795,7 @@
         <v>378</v>
       </c>
       <c r="N847" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O847" s="3" t="s">
         <v>396</v>
@@ -49848,7 +49851,7 @@
         <v>378</v>
       </c>
       <c r="N848" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O848" s="3" t="s">
         <v>396</v>
@@ -49904,7 +49907,7 @@
         <v>378</v>
       </c>
       <c r="N849" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O849" s="3" t="s">
         <v>396</v>
@@ -49960,7 +49963,7 @@
         <v>378</v>
       </c>
       <c r="N850" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O850" s="3" t="s">
         <v>396</v>
@@ -50016,7 +50019,7 @@
         <v>378</v>
       </c>
       <c r="N851" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O851" s="3" t="s">
         <v>396</v>
@@ -50072,7 +50075,7 @@
         <v>378</v>
       </c>
       <c r="N852" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O852" s="3" t="s">
         <v>396</v>
@@ -50128,7 +50131,7 @@
         <v>378</v>
       </c>
       <c r="N853" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O853" s="3" t="s">
         <v>396</v>
@@ -50184,7 +50187,7 @@
         <v>378</v>
       </c>
       <c r="N854" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O854" s="3" t="s">
         <v>396</v>
@@ -50240,7 +50243,7 @@
         <v>378</v>
       </c>
       <c r="N855" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O855" s="3" t="s">
         <v>396</v>
@@ -50296,7 +50299,7 @@
         <v>378</v>
       </c>
       <c r="N856" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O856" s="3" t="s">
         <v>396</v>
@@ -50352,7 +50355,7 @@
         <v>378</v>
       </c>
       <c r="N857" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O857" s="3" t="s">
         <v>396</v>
@@ -50408,7 +50411,7 @@
         <v>378</v>
       </c>
       <c r="N858" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O858" s="3" t="s">
         <v>396</v>
@@ -50464,7 +50467,7 @@
         <v>378</v>
       </c>
       <c r="N859" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O859" s="3" t="s">
         <v>396</v>
@@ -50520,7 +50523,7 @@
         <v>378</v>
       </c>
       <c r="N860" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O860" s="3" t="s">
         <v>396</v>
@@ -50576,7 +50579,7 @@
         <v>378</v>
       </c>
       <c r="N861" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O861" s="3" t="s">
         <v>396</v>
@@ -50632,7 +50635,7 @@
         <v>378</v>
       </c>
       <c r="N862" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O862" s="3" t="s">
         <v>396</v>
@@ -50688,7 +50691,7 @@
         <v>378</v>
       </c>
       <c r="N863" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O863" s="3" t="s">
         <v>396</v>
@@ -50744,7 +50747,7 @@
         <v>378</v>
       </c>
       <c r="N864" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O864" s="3" t="s">
         <v>396</v>
@@ -50800,7 +50803,7 @@
         <v>378</v>
       </c>
       <c r="N865" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O865" s="3" t="s">
         <v>396</v>
@@ -50856,7 +50859,7 @@
         <v>378</v>
       </c>
       <c r="N866" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O866" s="3" t="s">
         <v>396</v>
@@ -50912,7 +50915,7 @@
         <v>378</v>
       </c>
       <c r="N867" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O867" s="3" t="s">
         <v>396</v>
@@ -50968,7 +50971,7 @@
         <v>378</v>
       </c>
       <c r="N868" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O868" s="3" t="s">
         <v>396</v>
@@ -51024,7 +51027,7 @@
         <v>378</v>
       </c>
       <c r="N869" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O869" s="3" t="s">
         <v>396</v>
@@ -51080,7 +51083,7 @@
         <v>378</v>
       </c>
       <c r="N870" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O870" s="3" t="s">
         <v>396</v>
@@ -51136,7 +51139,7 @@
         <v>378</v>
       </c>
       <c r="N871" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O871" s="3" t="s">
         <v>396</v>
@@ -51192,7 +51195,7 @@
         <v>378</v>
       </c>
       <c r="N872" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O872" s="3" t="s">
         <v>396</v>
@@ -51248,7 +51251,7 @@
         <v>378</v>
       </c>
       <c r="N873" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O873" s="3" t="s">
         <v>396</v>
@@ -51304,7 +51307,7 @@
         <v>378</v>
       </c>
       <c r="N874" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O874" s="3" t="s">
         <v>396</v>
@@ -51360,7 +51363,7 @@
         <v>378</v>
       </c>
       <c r="N875" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O875" s="3" t="s">
         <v>396</v>
@@ -51416,7 +51419,7 @@
         <v>378</v>
       </c>
       <c r="N876" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O876" s="3" t="s">
         <v>396</v>
@@ -51472,7 +51475,7 @@
         <v>378</v>
       </c>
       <c r="N877" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O877" s="3" t="s">
         <v>396</v>
@@ -51528,7 +51531,7 @@
         <v>378</v>
       </c>
       <c r="N878" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O878" s="3" t="s">
         <v>396</v>
@@ -51584,7 +51587,7 @@
         <v>378</v>
       </c>
       <c r="N879" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O879" s="3" t="s">
         <v>396</v>
@@ -51640,7 +51643,7 @@
         <v>378</v>
       </c>
       <c r="N880" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O880" s="3" t="s">
         <v>396</v>
@@ -51696,7 +51699,7 @@
         <v>378</v>
       </c>
       <c r="N881" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O881" s="3" t="s">
         <v>396</v>
@@ -51752,7 +51755,7 @@
         <v>378</v>
       </c>
       <c r="N882" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O882" s="3" t="s">
         <v>396</v>
@@ -51808,7 +51811,7 @@
         <v>378</v>
       </c>
       <c r="N883" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O883" s="3" t="s">
         <v>396</v>
@@ -51864,7 +51867,7 @@
         <v>378</v>
       </c>
       <c r="N884" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O884" s="3" t="s">
         <v>396</v>
@@ -51920,7 +51923,7 @@
         <v>378</v>
       </c>
       <c r="N885" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O885" s="3" t="s">
         <v>396</v>
@@ -51976,7 +51979,7 @@
         <v>378</v>
       </c>
       <c r="N886" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O886" s="3" t="s">
         <v>396</v>
@@ -52032,7 +52035,7 @@
         <v>378</v>
       </c>
       <c r="N887" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O887" s="3" t="s">
         <v>396</v>
@@ -52088,7 +52091,7 @@
         <v>378</v>
       </c>
       <c r="N888" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O888" s="3" t="s">
         <v>396</v>
@@ -52144,7 +52147,7 @@
         <v>378</v>
       </c>
       <c r="N889" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O889" s="3" t="s">
         <v>396</v>
@@ -52200,7 +52203,7 @@
         <v>378</v>
       </c>
       <c r="N890" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O890" s="3" t="s">
         <v>396</v>
@@ -52256,7 +52259,7 @@
         <v>378</v>
       </c>
       <c r="N891" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O891" s="3" t="s">
         <v>396</v>
@@ -52312,7 +52315,7 @@
         <v>378</v>
       </c>
       <c r="N892" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O892" s="3" t="s">
         <v>396</v>
@@ -52368,7 +52371,7 @@
         <v>378</v>
       </c>
       <c r="N893" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O893" s="3" t="s">
         <v>396</v>
@@ -52424,7 +52427,7 @@
         <v>378</v>
       </c>
       <c r="N894" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O894" s="3" t="s">
         <v>396</v>
@@ -52480,7 +52483,7 @@
         <v>378</v>
       </c>
       <c r="N895" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O895" s="3" t="s">
         <v>396</v>
@@ -52536,7 +52539,7 @@
         <v>378</v>
       </c>
       <c r="N896" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O896" s="3" t="s">
         <v>396</v>
@@ -52592,7 +52595,7 @@
         <v>378</v>
       </c>
       <c r="N897" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O897" s="3" t="s">
         <v>396</v>
@@ -52648,7 +52651,7 @@
         <v>378</v>
       </c>
       <c r="N898" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O898" s="3" t="s">
         <v>396</v>
@@ -52704,7 +52707,7 @@
         <v>378</v>
       </c>
       <c r="N899" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O899" s="3" t="s">
         <v>396</v>
@@ -52760,7 +52763,7 @@
         <v>378</v>
       </c>
       <c r="N900" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O900" s="3" t="s">
         <v>396</v>
@@ -52816,7 +52819,7 @@
         <v>378</v>
       </c>
       <c r="N901" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O901" s="3" t="s">
         <v>396</v>
@@ -52872,7 +52875,7 @@
         <v>378</v>
       </c>
       <c r="N902" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O902" s="3" t="s">
         <v>396</v>
@@ -52928,7 +52931,7 @@
         <v>378</v>
       </c>
       <c r="N903" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O903" s="3" t="s">
         <v>396</v>
@@ -52984,7 +52987,7 @@
         <v>378</v>
       </c>
       <c r="N904" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O904" s="3" t="s">
         <v>396</v>
@@ -53040,7 +53043,7 @@
         <v>378</v>
       </c>
       <c r="N905" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O905" s="3" t="s">
         <v>396</v>
@@ -53096,7 +53099,7 @@
         <v>378</v>
       </c>
       <c r="N906" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O906" s="3" t="s">
         <v>396</v>
@@ -53152,7 +53155,7 @@
         <v>378</v>
       </c>
       <c r="N907" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O907" s="3" t="s">
         <v>396</v>
@@ -53208,7 +53211,7 @@
         <v>378</v>
       </c>
       <c r="N908" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O908" s="3" t="s">
         <v>396</v>
@@ -53264,7 +53267,7 @@
         <v>378</v>
       </c>
       <c r="N909" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O909" s="3" t="s">
         <v>396</v>
@@ -53320,7 +53323,7 @@
         <v>378</v>
       </c>
       <c r="N910" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O910" s="3" t="s">
         <v>396</v>
@@ -53376,7 +53379,7 @@
         <v>378</v>
       </c>
       <c r="N911" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O911" s="3" t="s">
         <v>396</v>
@@ -53432,7 +53435,7 @@
         <v>378</v>
       </c>
       <c r="N912" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O912" s="3" t="s">
         <v>396</v>
@@ -53488,7 +53491,7 @@
         <v>378</v>
       </c>
       <c r="N913" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O913" s="3" t="s">
         <v>396</v>
@@ -53544,7 +53547,7 @@
         <v>378</v>
       </c>
       <c r="N914" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O914" s="3" t="s">
         <v>396</v>
@@ -53600,7 +53603,7 @@
         <v>378</v>
       </c>
       <c r="N915" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O915" s="3" t="s">
         <v>396</v>
@@ -53656,7 +53659,7 @@
         <v>378</v>
       </c>
       <c r="N916" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O916" s="3" t="s">
         <v>396</v>
@@ -53712,7 +53715,7 @@
         <v>378</v>
       </c>
       <c r="N917" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O917" s="3" t="s">
         <v>396</v>
@@ -53768,7 +53771,7 @@
         <v>378</v>
       </c>
       <c r="N918" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O918" s="3" t="s">
         <v>396</v>
@@ -53824,7 +53827,7 @@
         <v>378</v>
       </c>
       <c r="N919" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O919" s="3" t="s">
         <v>396</v>
@@ -53880,7 +53883,7 @@
         <v>378</v>
       </c>
       <c r="N920" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O920" s="3" t="s">
         <v>396</v>
@@ -53936,7 +53939,7 @@
         <v>378</v>
       </c>
       <c r="N921" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O921" s="3" t="s">
         <v>396</v>
@@ -53992,7 +53995,7 @@
         <v>378</v>
       </c>
       <c r="N922" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O922" s="3" t="s">
         <v>396</v>
@@ -54048,7 +54051,7 @@
         <v>378</v>
       </c>
       <c r="N923" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O923" s="3" t="s">
         <v>396</v>
@@ -54104,7 +54107,7 @@
         <v>378</v>
       </c>
       <c r="N924" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O924" s="3" t="s">
         <v>396</v>
@@ -54160,7 +54163,7 @@
         <v>378</v>
       </c>
       <c r="N925" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O925" s="3" t="s">
         <v>396</v>
@@ -54216,7 +54219,7 @@
         <v>378</v>
       </c>
       <c r="N926" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O926" s="3" t="s">
         <v>396</v>
@@ -54272,7 +54275,7 @@
         <v>378</v>
       </c>
       <c r="N927" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O927" s="3" t="s">
         <v>396</v>
@@ -54328,7 +54331,7 @@
         <v>378</v>
       </c>
       <c r="N928" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O928" s="3" t="s">
         <v>396</v>
@@ -54384,7 +54387,7 @@
         <v>378</v>
       </c>
       <c r="N929" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O929" s="3" t="s">
         <v>396</v>
@@ -54440,7 +54443,7 @@
         <v>378</v>
       </c>
       <c r="N930" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O930" s="3" t="s">
         <v>396</v>
@@ -54496,7 +54499,7 @@
         <v>378</v>
       </c>
       <c r="N931" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O931" s="3" t="s">
         <v>396</v>
@@ -54552,7 +54555,7 @@
         <v>378</v>
       </c>
       <c r="N932" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O932" s="3" t="s">
         <v>396</v>
@@ -54608,7 +54611,7 @@
         <v>378</v>
       </c>
       <c r="N933" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O933" s="3" t="s">
         <v>396</v>
@@ -54664,7 +54667,7 @@
         <v>378</v>
       </c>
       <c r="N934" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O934" s="3" t="s">
         <v>396</v>
@@ -54720,7 +54723,7 @@
         <v>378</v>
       </c>
       <c r="N935" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O935" s="3" t="s">
         <v>396</v>
@@ -54776,7 +54779,7 @@
         <v>378</v>
       </c>
       <c r="N936" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O936" s="3" t="s">
         <v>396</v>
@@ -54832,7 +54835,7 @@
         <v>378</v>
       </c>
       <c r="N937" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O937" s="3" t="s">
         <v>396</v>
@@ -54888,7 +54891,7 @@
         <v>378</v>
       </c>
       <c r="N938" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O938" s="3" t="s">
         <v>396</v>
@@ -54944,7 +54947,7 @@
         <v>378</v>
       </c>
       <c r="N939" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O939" s="3" t="s">
         <v>396</v>
@@ -55000,7 +55003,7 @@
         <v>378</v>
       </c>
       <c r="N940" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O940" s="3" t="s">
         <v>396</v>
@@ -55056,7 +55059,7 @@
         <v>378</v>
       </c>
       <c r="N941" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O941" s="3" t="s">
         <v>396</v>
@@ -55112,7 +55115,7 @@
         <v>378</v>
       </c>
       <c r="N942" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O942" s="3" t="s">
         <v>396</v>
@@ -55168,7 +55171,7 @@
         <v>378</v>
       </c>
       <c r="N943" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O943" s="3" t="s">
         <v>396</v>
@@ -55224,7 +55227,7 @@
         <v>378</v>
       </c>
       <c r="N944" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O944" s="3" t="s">
         <v>396</v>
@@ -55280,7 +55283,7 @@
         <v>378</v>
       </c>
       <c r="N945" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O945" s="3" t="s">
         <v>396</v>
@@ -55336,7 +55339,7 @@
         <v>378</v>
       </c>
       <c r="N946" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O946" s="3" t="s">
         <v>396</v>
@@ -55392,7 +55395,7 @@
         <v>378</v>
       </c>
       <c r="N947" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O947" s="3" t="s">
         <v>396</v>
@@ -55448,7 +55451,7 @@
         <v>378</v>
       </c>
       <c r="N948" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O948" s="3" t="s">
         <v>396</v>
@@ -55504,7 +55507,7 @@
         <v>378</v>
       </c>
       <c r="N949" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O949" s="3" t="s">
         <v>396</v>
@@ -55560,7 +55563,7 @@
         <v>378</v>
       </c>
       <c r="N950" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O950" s="3" t="s">
         <v>396</v>
@@ -55616,7 +55619,7 @@
         <v>378</v>
       </c>
       <c r="N951" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O951" s="3" t="s">
         <v>396</v>
@@ -55672,7 +55675,7 @@
         <v>378</v>
       </c>
       <c r="N952" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O952" s="3" t="s">
         <v>396</v>
@@ -55728,7 +55731,7 @@
         <v>378</v>
       </c>
       <c r="N953" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O953" s="3" t="s">
         <v>396</v>
@@ -55784,7 +55787,7 @@
         <v>378</v>
       </c>
       <c r="N954" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O954" s="3" t="s">
         <v>396</v>
@@ -55840,7 +55843,7 @@
         <v>378</v>
       </c>
       <c r="N955" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O955" s="3" t="s">
         <v>396</v>
@@ -55896,7 +55899,7 @@
         <v>378</v>
       </c>
       <c r="N956" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O956" s="3" t="s">
         <v>396</v>
@@ -55952,7 +55955,7 @@
         <v>378</v>
       </c>
       <c r="N957" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O957" s="3" t="s">
         <v>396</v>
@@ -56008,7 +56011,7 @@
         <v>378</v>
       </c>
       <c r="N958" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O958" s="3" t="s">
         <v>396</v>
@@ -56064,7 +56067,7 @@
         <v>378</v>
       </c>
       <c r="N959" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O959" s="3" t="s">
         <v>396</v>
@@ -56120,7 +56123,7 @@
         <v>378</v>
       </c>
       <c r="N960" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O960" s="3" t="s">
         <v>396</v>
@@ -56176,7 +56179,7 @@
         <v>378</v>
       </c>
       <c r="N961" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O961" s="3" t="s">
         <v>396</v>
@@ -56232,7 +56235,7 @@
         <v>378</v>
       </c>
       <c r="N962" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O962" s="3" t="s">
         <v>396</v>
@@ -56288,7 +56291,7 @@
         <v>378</v>
       </c>
       <c r="N963" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O963" s="3" t="s">
         <v>396</v>
@@ -56344,7 +56347,7 @@
         <v>378</v>
       </c>
       <c r="N964" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O964" s="3" t="s">
         <v>396</v>
@@ -56400,7 +56403,7 @@
         <v>378</v>
       </c>
       <c r="N965" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O965" s="3" t="s">
         <v>396</v>
@@ -56456,7 +56459,7 @@
         <v>378</v>
       </c>
       <c r="N966" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O966" s="3" t="s">
         <v>396</v>
@@ -56512,7 +56515,7 @@
         <v>378</v>
       </c>
       <c r="N967" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O967" s="3" t="s">
         <v>396</v>
@@ -56568,7 +56571,7 @@
         <v>378</v>
       </c>
       <c r="N968" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O968" s="3" t="s">
         <v>396</v>
@@ -56624,7 +56627,7 @@
         <v>378</v>
       </c>
       <c r="N969" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O969" s="3" t="s">
         <v>396</v>
@@ -56680,7 +56683,7 @@
         <v>378</v>
       </c>
       <c r="N970" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O970" s="3" t="s">
         <v>396</v>
@@ -56736,7 +56739,7 @@
         <v>378</v>
       </c>
       <c r="N971" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O971" s="3" t="s">
         <v>396</v>
@@ -56792,7 +56795,7 @@
         <v>378</v>
       </c>
       <c r="N972" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O972" s="3" t="s">
         <v>396</v>
@@ -56848,7 +56851,7 @@
         <v>378</v>
       </c>
       <c r="N973" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O973" s="3" t="s">
         <v>396</v>
@@ -56904,7 +56907,7 @@
         <v>378</v>
       </c>
       <c r="N974" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O974" s="3" t="s">
         <v>396</v>
@@ -56960,7 +56963,7 @@
         <v>378</v>
       </c>
       <c r="N975" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O975" s="3" t="s">
         <v>396</v>
@@ -57016,7 +57019,7 @@
         <v>378</v>
       </c>
       <c r="N976" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O976" s="3" t="s">
         <v>396</v>
@@ -57072,17 +57075,17 @@
         <v>378</v>
       </c>
       <c r="N977" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O977" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P977" s="3">
-        <f>_xlfn.RANK.EQ(K977,$K$528:$K$1012)</f>
+        <f t="shared" ref="P977:P1012" si="14">_xlfn.RANK.EQ(K977,$K$528:$K$1012)</f>
         <v>450</v>
       </c>
       <c r="Q977" s="3">
-        <f t="shared" ref="Q977:Q1012" si="14">COUNT($P$528:$P$1012)</f>
+        <f t="shared" ref="Q977:Q1012" si="15">COUNT($P$528:$P$1012)</f>
         <v>485</v>
       </c>
       <c r="R977" s="3">
@@ -57128,17 +57131,17 @@
         <v>378</v>
       </c>
       <c r="N978" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O978" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P978" s="3">
-        <f>_xlfn.RANK.EQ(K978,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
       <c r="Q978" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R978" s="3">
@@ -57184,17 +57187,17 @@
         <v>378</v>
       </c>
       <c r="N979" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O979" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P979" s="3">
-        <f>_xlfn.RANK.EQ(K979,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>452</v>
       </c>
       <c r="Q979" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R979" s="3">
@@ -57240,17 +57243,17 @@
         <v>378</v>
       </c>
       <c r="N980" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O980" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P980" s="3">
-        <f>_xlfn.RANK.EQ(K980,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>452</v>
       </c>
       <c r="Q980" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R980" s="3">
@@ -57296,17 +57299,17 @@
         <v>378</v>
       </c>
       <c r="N981" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O981" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P981" s="3">
-        <f>_xlfn.RANK.EQ(K981,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>454</v>
       </c>
       <c r="Q981" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R981" s="3">
@@ -57352,17 +57355,17 @@
         <v>378</v>
       </c>
       <c r="N982" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O982" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P982" s="3">
-        <f>_xlfn.RANK.EQ(K982,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>454</v>
       </c>
       <c r="Q982" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R982" s="3">
@@ -57408,17 +57411,17 @@
         <v>378</v>
       </c>
       <c r="N983" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O983" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P983" s="3">
-        <f>_xlfn.RANK.EQ(K983,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>456</v>
       </c>
       <c r="Q983" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R983" s="3">
@@ -57464,17 +57467,17 @@
         <v>378</v>
       </c>
       <c r="N984" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O984" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P984" s="3">
-        <f>_xlfn.RANK.EQ(K984,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>456</v>
       </c>
       <c r="Q984" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R984" s="3">
@@ -57520,17 +57523,17 @@
         <v>378</v>
       </c>
       <c r="N985" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O985" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P985" s="3">
-        <f>_xlfn.RANK.EQ(K985,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>458</v>
       </c>
       <c r="Q985" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R985" s="3">
@@ -57576,17 +57579,17 @@
         <v>378</v>
       </c>
       <c r="N986" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O986" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P986" s="3">
-        <f>_xlfn.RANK.EQ(K986,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>458</v>
       </c>
       <c r="Q986" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R986" s="3">
@@ -57632,17 +57635,17 @@
         <v>378</v>
       </c>
       <c r="N987" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O987" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P987" s="3">
-        <f>_xlfn.RANK.EQ(K987,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
       <c r="Q987" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R987" s="3">
@@ -57688,17 +57691,17 @@
         <v>378</v>
       </c>
       <c r="N988" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O988" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P988" s="3">
-        <f>_xlfn.RANK.EQ(K988,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>460</v>
       </c>
       <c r="Q988" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R988" s="3">
@@ -57744,17 +57747,17 @@
         <v>378</v>
       </c>
       <c r="N989" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O989" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P989" s="3">
-        <f>_xlfn.RANK.EQ(K989,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>462</v>
       </c>
       <c r="Q989" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R989" s="3">
@@ -57800,17 +57803,17 @@
         <v>378</v>
       </c>
       <c r="N990" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O990" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P990" s="3">
-        <f>_xlfn.RANK.EQ(K990,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>462</v>
       </c>
       <c r="Q990" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R990" s="3">
@@ -57819,7 +57822,7 @@
     </row>
     <row r="991" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A991" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B991" s="3">
         <v>22222</v>
@@ -57854,17 +57857,17 @@
         <v>388</v>
       </c>
       <c r="N991" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O991" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P991" s="3">
-        <f>_xlfn.RANK.EQ(K991,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>464</v>
       </c>
       <c r="Q991" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R991" s="3">
@@ -57873,7 +57876,7 @@
     </row>
     <row r="992" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A992" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B992" s="3">
         <v>22222</v>
@@ -57908,17 +57911,17 @@
         <v>388</v>
       </c>
       <c r="N992" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O992" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P992" s="3">
-        <f>_xlfn.RANK.EQ(K992,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>465</v>
       </c>
       <c r="Q992" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R992" s="3">
@@ -57927,7 +57930,7 @@
     </row>
     <row r="993" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A993" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B993" s="3">
         <v>22222</v>
@@ -57962,17 +57965,17 @@
         <v>388</v>
       </c>
       <c r="N993" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O993" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P993" s="3">
-        <f>_xlfn.RANK.EQ(K993,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>466</v>
       </c>
       <c r="Q993" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R993" s="3">
@@ -57981,7 +57984,7 @@
     </row>
     <row r="994" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A994" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B994" s="3">
         <v>22222</v>
@@ -58016,17 +58019,17 @@
         <v>388</v>
       </c>
       <c r="N994" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O994" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P994" s="3">
-        <f>_xlfn.RANK.EQ(K994,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>467</v>
       </c>
       <c r="Q994" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R994" s="3">
@@ -58035,7 +58038,7 @@
     </row>
     <row r="995" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A995" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B995" s="3">
         <v>22222</v>
@@ -58070,17 +58073,17 @@
         <v>388</v>
       </c>
       <c r="N995" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O995" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P995" s="3">
-        <f>_xlfn.RANK.EQ(K995,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>467</v>
       </c>
       <c r="Q995" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R995" s="3">
@@ -58089,7 +58092,7 @@
     </row>
     <row r="996" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A996" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B996" s="3">
         <v>22222</v>
@@ -58124,17 +58127,17 @@
         <v>388</v>
       </c>
       <c r="N996" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O996" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P996" s="3">
-        <f>_xlfn.RANK.EQ(K996,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>469</v>
       </c>
       <c r="Q996" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R996" s="3">
@@ -58143,7 +58146,7 @@
     </row>
     <row r="997" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A997" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B997" s="3">
         <v>22222</v>
@@ -58178,17 +58181,17 @@
         <v>388</v>
       </c>
       <c r="N997" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O997" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P997" s="3">
-        <f>_xlfn.RANK.EQ(K997,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>470</v>
       </c>
       <c r="Q997" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R997" s="3">
@@ -58197,7 +58200,7 @@
     </row>
     <row r="998" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A998" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B998" s="3">
         <v>22222</v>
@@ -58232,17 +58235,17 @@
         <v>388</v>
       </c>
       <c r="N998" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O998" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P998" s="3">
-        <f>_xlfn.RANK.EQ(K998,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>471</v>
       </c>
       <c r="Q998" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R998" s="3">
@@ -58251,7 +58254,7 @@
     </row>
     <row r="999" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A999" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B999" s="3">
         <v>22222</v>
@@ -58286,17 +58289,17 @@
         <v>388</v>
       </c>
       <c r="N999" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O999" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P999" s="3">
-        <f>_xlfn.RANK.EQ(K999,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>471</v>
       </c>
       <c r="Q999" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R999" s="3">
@@ -58305,7 +58308,7 @@
     </row>
     <row r="1000" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1000" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1000" s="3">
         <v>22222</v>
@@ -58340,17 +58343,17 @@
         <v>388</v>
       </c>
       <c r="N1000" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1000" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1000" s="3">
-        <f>_xlfn.RANK.EQ(K1000,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>473</v>
       </c>
       <c r="Q1000" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1000" s="3">
@@ -58359,7 +58362,7 @@
     </row>
     <row r="1001" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1001" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1001" s="3">
         <v>22222</v>
@@ -58394,17 +58397,17 @@
         <v>388</v>
       </c>
       <c r="N1001" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1001" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1001" s="3">
-        <f>_xlfn.RANK.EQ(K1001,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>474</v>
       </c>
       <c r="Q1001" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1001" s="3">
@@ -58413,7 +58416,7 @@
     </row>
     <row r="1002" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1002" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1002" s="3">
         <v>22222</v>
@@ -58448,17 +58451,17 @@
         <v>388</v>
       </c>
       <c r="N1002" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1002" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1002" s="3">
-        <f>_xlfn.RANK.EQ(K1002,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>475</v>
       </c>
       <c r="Q1002" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1002" s="3">
@@ -58467,7 +58470,7 @@
     </row>
     <row r="1003" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1003" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1003" s="3">
         <v>22222</v>
@@ -58502,17 +58505,17 @@
         <v>388</v>
       </c>
       <c r="N1003" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1003" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1003" s="3">
-        <f>_xlfn.RANK.EQ(K1003,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>476</v>
       </c>
       <c r="Q1003" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1003" s="3">
@@ -58521,7 +58524,7 @@
     </row>
     <row r="1004" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1004" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1004" s="3">
         <v>22222</v>
@@ -58556,17 +58559,17 @@
         <v>388</v>
       </c>
       <c r="N1004" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1004" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1004" s="3">
-        <f>_xlfn.RANK.EQ(K1004,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>477</v>
       </c>
       <c r="Q1004" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1004" s="3">
@@ -58575,7 +58578,7 @@
     </row>
     <row r="1005" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1005" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1005" s="3">
         <v>22222</v>
@@ -58610,17 +58613,17 @@
         <v>388</v>
       </c>
       <c r="N1005" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1005" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1005" s="3">
-        <f>_xlfn.RANK.EQ(K1005,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>478</v>
       </c>
       <c r="Q1005" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1005" s="3">
@@ -58629,7 +58632,7 @@
     </row>
     <row r="1006" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1006" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1006" s="3">
         <v>22222</v>
@@ -58664,17 +58667,17 @@
         <v>388</v>
       </c>
       <c r="N1006" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1006" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1006" s="3">
-        <f>_xlfn.RANK.EQ(K1006,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>479</v>
       </c>
       <c r="Q1006" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1006" s="3">
@@ -58683,7 +58686,7 @@
     </row>
     <row r="1007" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1007" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1007" s="3">
         <v>22222</v>
@@ -58718,17 +58721,17 @@
         <v>388</v>
       </c>
       <c r="N1007" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1007" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1007" s="3">
-        <f>_xlfn.RANK.EQ(K1007,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>480</v>
       </c>
       <c r="Q1007" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1007" s="3">
@@ -58737,7 +58740,7 @@
     </row>
     <row r="1008" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1008" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1008" s="3">
         <v>22222</v>
@@ -58772,17 +58775,17 @@
         <v>388</v>
       </c>
       <c r="N1008" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1008" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1008" s="3">
-        <f>_xlfn.RANK.EQ(K1008,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>481</v>
       </c>
       <c r="Q1008" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1008" s="3">
@@ -58791,7 +58794,7 @@
     </row>
     <row r="1009" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1009" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1009" s="3">
         <v>22222</v>
@@ -58826,17 +58829,17 @@
         <v>388</v>
       </c>
       <c r="N1009" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1009" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1009" s="3">
-        <f>_xlfn.RANK.EQ(K1009,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>482</v>
       </c>
       <c r="Q1009" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1009" s="3">
@@ -58845,7 +58848,7 @@
     </row>
     <row r="1010" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1010" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1010" s="3">
         <v>22222</v>
@@ -58880,17 +58883,17 @@
         <v>388</v>
       </c>
       <c r="N1010" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1010" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1010" s="3">
-        <f>_xlfn.RANK.EQ(K1010,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>483</v>
       </c>
       <c r="Q1010" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1010" s="3">
@@ -58899,7 +58902,7 @@
     </row>
     <row r="1011" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1011" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1011" s="3">
         <v>22222</v>
@@ -58934,17 +58937,17 @@
         <v>388</v>
       </c>
       <c r="N1011" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1011" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1011" s="3">
-        <f>_xlfn.RANK.EQ(K1011,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>484</v>
       </c>
       <c r="Q1011" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1011" s="3">
@@ -58953,7 +58956,7 @@
     </row>
     <row r="1012" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1012" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B1012" s="3">
         <v>22222</v>
@@ -58988,17 +58991,17 @@
         <v>388</v>
       </c>
       <c r="N1012" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1012" s="3" t="s">
         <v>396</v>
       </c>
       <c r="P1012" s="3">
-        <f>_xlfn.RANK.EQ(K1012,$K$528:$K$1012)</f>
+        <f t="shared" si="14"/>
         <v>485</v>
       </c>
       <c r="Q1012" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R1012" s="3">
@@ -59040,7 +59043,7 @@
         <v>378</v>
       </c>
       <c r="N1013" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1013" s="3" t="s">
         <v>396</v>
@@ -59084,7 +59087,7 @@
         <v>378</v>
       </c>
       <c r="N1014" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1014" s="3" t="s">
         <v>396</v>
@@ -59128,7 +59131,7 @@
         <v>378</v>
       </c>
       <c r="N1015" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1015" s="3" t="s">
         <v>396</v>
@@ -59174,7 +59177,7 @@
         <v>378</v>
       </c>
       <c r="N1016" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1016" s="3" t="s">
         <v>396</v>
@@ -59218,7 +59221,7 @@
         <v>378</v>
       </c>
       <c r="N1017" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1017" s="3" t="s">
         <v>396</v>
@@ -59262,7 +59265,7 @@
         <v>378</v>
       </c>
       <c r="N1018" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O1018" s="3" t="s">
         <v>396</v>
